--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -27,10 +27,38 @@
     <t>Excel Worksheet Name</t>
   </si>
   <si>
+    <t>Export Summary</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
     <t>participants</t>
   </si>
   <si>
-    <t>Table 1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>participants</t>
+    </r>
+  </si>
+  <si>
+    <t>Old_school_excel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Old_school_excel</t>
+    </r>
   </si>
   <si>
     <t>Groupe</t>
@@ -217,9 +245,6 @@
   </si>
   <si>
     <t>Satriale pork Store</t>
-  </si>
-  <si>
-    <t>Old_school_excel</t>
   </si>
   <si>
     <t>Nom</t>
@@ -249,7 +274,7 @@
     <numFmt numFmtId="59" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="60" formatCode="yyyy-m-d"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -287,8 +312,13 @@
       <color indexed="17"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,7 +339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -325,14 +355,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="21"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -342,11 +366,98 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -357,7 +468,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -367,10 +478,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -424,106 +535,61 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="19"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="19"/>
+        <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="19"/>
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
-        <color indexed="20"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="19"/>
+        <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="20"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="20"/>
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
-        <color indexed="19"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="20"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="19"/>
+        <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="20"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="19"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="19"/>
+        <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="19"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="20"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="19"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="19"/>
-      </left>
-      <right style="thin">
-        <color indexed="20"/>
-      </right>
-      <top style="thin">
-        <color indexed="19"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="19"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="20"/>
-      </left>
-      <right style="thin">
-        <color indexed="19"/>
-      </right>
-      <top style="thin">
-        <color indexed="19"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="19"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="19"/>
-      </left>
-      <right style="thin">
-        <color indexed="19"/>
-      </right>
-      <top style="thin">
-        <color indexed="19"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="19"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,7 +599,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -555,85 +621,139 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -656,15 +776,12 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ff202124"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
@@ -1727,73 +1844,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
     <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="2" max="2" width="33.6719" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.6719" style="6" customWidth="1"/>
+    <col min="4" max="4" width="33.6719" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="14.7" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="14">
         <v>3</v>
       </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
       <c r="B11" t="s" s="3">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="20"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>68</v>
+        <v>6</v>
+      </c>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
+    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'participants'!R1C1" tooltip="" display="participants"/>
-    <hyperlink ref="D12" location="'Old_school_excel'!R2C1" tooltip="" display="Old_school_excel"/>
+    <hyperlink ref="D12" location="'Old_school_excel'!R1C1" tooltip="" display="Old_school_excel"/>
+    <hyperlink ref="D12" location="'participants'!R1C1" tooltip="" display="participants"/>
+    <hyperlink ref="D14" location="'Old_school_excel'!R1C1" tooltip="" display="Old_school_excel"/>
   </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1805,613 +2011,613 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="7">
+      <c r="A1" t="s" s="26">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="10">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s" s="10">
+      <c r="A2" t="s" s="29">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="10">
+      <c r="B2" t="s" s="29">
         <v>11</v>
       </c>
-      <c r="G2" t="s" s="10">
+      <c r="C2" t="s" s="29">
         <v>12</v>
       </c>
+      <c r="D2" t="s" s="29">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="29">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="29">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="29">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="A3" t="s" s="30">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s" s="30">
+        <v>19</v>
+      </c>
+      <c r="D3" s="31">
         <v>28126</v>
       </c>
-      <c r="E3" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="E3" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="F3" s="32">
         <v>200000</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="15">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="A4" t="s" s="34">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="34">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="34">
+        <v>23</v>
+      </c>
+      <c r="D4" s="35">
         <v>24838</v>
       </c>
-      <c r="E4" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="E4" t="s" s="34">
+        <v>20</v>
+      </c>
+      <c r="F4" s="36">
         <v>50000</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="15">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s" s="15">
+      <c r="A5" t="s" s="34">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s" s="34">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s" s="34">
+        <v>25</v>
+      </c>
+      <c r="D5" s="35">
+        <v>30317</v>
+      </c>
+      <c r="E5" t="s" s="34">
         <v>20</v>
       </c>
-      <c r="C5" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="D5" s="16">
-        <v>30317</v>
-      </c>
-      <c r="E5" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="F5" s="36">
         <v>650000</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" ht="32.05" customHeight="1">
-      <c r="A6" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s" s="15">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s" s="15">
-        <v>24</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="A6" t="s" s="34">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s" s="34">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s" s="34">
+        <v>28</v>
+      </c>
+      <c r="D6" s="35">
         <v>29397</v>
       </c>
-      <c r="E6" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" t="s" s="34">
+        <v>29</v>
+      </c>
+      <c r="F6" s="36">
         <v>125000</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" ht="32.05" customHeight="1">
-      <c r="A7" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s" s="15">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s" s="15">
-        <v>28</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="A7" t="s" s="34">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s" s="34">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s" s="34">
+        <v>32</v>
+      </c>
+      <c r="D7" s="35">
         <v>28238</v>
       </c>
-      <c r="E7" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="E7" t="s" s="34">
+        <v>29</v>
+      </c>
+      <c r="F7" s="36">
         <v>125000</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" ht="32.05" customHeight="1">
-      <c r="A8" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s" s="15">
+      <c r="A8" t="s" s="34">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s" s="34">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s" s="34">
+        <v>34</v>
+      </c>
+      <c r="D8" s="35">
+        <v>27822</v>
+      </c>
+      <c r="E8" t="s" s="34">
         <v>29</v>
       </c>
-      <c r="C8" t="s" s="15">
+      <c r="F8" s="36">
+        <v>145000</v>
+      </c>
+      <c r="G8" t="s" s="34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" ht="32.05" customHeight="1">
+      <c r="A9" t="s" s="34">
         <v>30</v>
       </c>
-      <c r="D8" s="16">
+      <c r="B9" t="s" s="34">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s" s="34">
+        <v>34</v>
+      </c>
+      <c r="D9" s="35">
         <v>27822</v>
       </c>
-      <c r="E8" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="E9" t="s" s="34">
+        <v>29</v>
+      </c>
+      <c r="F9" s="36">
         <v>145000</v>
       </c>
-      <c r="G8" t="s" s="15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" ht="32.05" customHeight="1">
-      <c r="A9" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s" s="15">
+      <c r="G9" t="s" s="34">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="32.05" customHeight="1">
+      <c r="A10" t="s" s="34">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s" s="34">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s" s="34">
+        <v>34</v>
+      </c>
+      <c r="D10" s="35">
+        <v>27822</v>
+      </c>
+      <c r="E10" t="s" s="34">
         <v>29</v>
       </c>
-      <c r="C9" t="s" s="15">
+      <c r="F10" s="36">
+        <v>145000</v>
+      </c>
+      <c r="G10" t="s" s="34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" ht="32.05" customHeight="1">
+      <c r="A11" t="s" s="34">
         <v>30</v>
       </c>
-      <c r="D9" s="16">
+      <c r="B11" t="s" s="34">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s" s="34">
+        <v>34</v>
+      </c>
+      <c r="D11" s="35">
         <v>27822</v>
       </c>
-      <c r="E9" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="E11" t="s" s="34">
+        <v>29</v>
+      </c>
+      <c r="F11" s="36">
         <v>145000</v>
       </c>
-      <c r="G9" t="s" s="15">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="32.05" customHeight="1">
-      <c r="A10" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s" s="15">
+      <c r="G11" t="s" s="34">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" ht="32.05" customHeight="1">
+      <c r="A12" t="s" s="34">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s" s="34">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s" s="34">
+        <v>41</v>
+      </c>
+      <c r="D12" s="35">
+        <v>4497</v>
+      </c>
+      <c r="E12" t="s" s="34">
         <v>29</v>
       </c>
-      <c r="C10" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="F12" s="36">
+        <v>150000000</v>
+      </c>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" ht="32.05" customHeight="1">
+      <c r="A13" t="s" s="34">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s" s="34">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s" s="34">
+        <v>34</v>
+      </c>
+      <c r="D13" s="35">
         <v>27822</v>
       </c>
-      <c r="E10" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="F10" s="17">
-        <v>145000</v>
-      </c>
-      <c r="G10" t="s" s="15">
+      <c r="E13" t="s" s="34">
+        <v>43</v>
+      </c>
+      <c r="F13" s="36">
+        <v>27500</v>
+      </c>
+      <c r="G13" t="s" s="34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" ht="32.05" customHeight="1">
+      <c r="A14" t="s" s="34">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s" s="34">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" ht="32.05" customHeight="1">
-      <c r="A11" t="s" s="15">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="C14" t="s" s="34">
+        <v>34</v>
+      </c>
+      <c r="D14" s="35">
         <v>27822</v>
       </c>
-      <c r="E11" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="F11" s="17">
-        <v>145000</v>
-      </c>
-      <c r="G11" t="s" s="15">
+      <c r="E14" t="s" s="34">
+        <v>43</v>
+      </c>
+      <c r="F14" s="36">
+        <v>27500</v>
+      </c>
+      <c r="G14" t="s" s="34">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="32.05" customHeight="1">
+      <c r="A15" t="s" s="34">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s" s="34">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s" s="34">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" ht="32.05" customHeight="1">
-      <c r="A12" t="s" s="15">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s" s="15">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s" s="15">
+      <c r="D15" s="35">
+        <v>27822</v>
+      </c>
+      <c r="E15" t="s" s="34">
+        <v>43</v>
+      </c>
+      <c r="F15" s="36">
+        <v>27500</v>
+      </c>
+      <c r="G15" t="s" s="34">
         <v>37</v>
       </c>
-      <c r="D12" s="16">
-        <v>28238</v>
-      </c>
-      <c r="E12" t="s" s="15">
-        <v>25</v>
-      </c>
-      <c r="F12" s="17">
-        <v>150000000</v>
-      </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" ht="32.05" customHeight="1">
-      <c r="A13" t="s" s="15">
+    </row>
+    <row r="16" ht="32.05" customHeight="1">
+      <c r="A16" t="s" s="34">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s" s="34">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s" s="34">
+        <v>34</v>
+      </c>
+      <c r="D16" s="35">
+        <v>27822</v>
+      </c>
+      <c r="E16" t="s" s="34">
+        <v>43</v>
+      </c>
+      <c r="F16" s="36">
+        <v>27500</v>
+      </c>
+      <c r="G16" t="s" s="34">
         <v>38</v>
       </c>
-      <c r="B13" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="D13" s="16">
-        <v>27822</v>
-      </c>
-      <c r="E13" t="s" s="15">
-        <v>39</v>
-      </c>
-      <c r="F13" s="17">
-        <v>27500</v>
-      </c>
-      <c r="G13" t="s" s="15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" ht="32.05" customHeight="1">
-      <c r="A14" t="s" s="15">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="D14" s="16">
-        <v>27822</v>
-      </c>
-      <c r="E14" t="s" s="15">
-        <v>39</v>
-      </c>
-      <c r="F14" s="17">
-        <v>27500</v>
-      </c>
-      <c r="G14" t="s" s="15">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" ht="32.05" customHeight="1">
-      <c r="A15" t="s" s="15">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="D15" s="16">
-        <v>27822</v>
-      </c>
-      <c r="E15" t="s" s="15">
-        <v>39</v>
-      </c>
-      <c r="F15" s="17">
-        <v>27500</v>
-      </c>
-      <c r="G15" t="s" s="15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" ht="32.05" customHeight="1">
-      <c r="A16" t="s" s="15">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s" s="15">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s" s="15">
-        <v>30</v>
-      </c>
-      <c r="D16" s="16">
-        <v>27822</v>
-      </c>
-      <c r="E16" t="s" s="15">
-        <v>39</v>
-      </c>
-      <c r="F16" s="17">
-        <v>27500</v>
-      </c>
-      <c r="G16" t="s" s="15">
-        <v>34</v>
-      </c>
     </row>
     <row r="17" ht="41" customHeight="1">
-      <c r="A17" t="s" s="15">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s" s="19">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s" s="15">
-        <v>42</v>
-      </c>
-      <c r="D17" s="20">
+      <c r="A17" t="s" s="34">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s" s="38">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s" s="34">
+        <v>46</v>
+      </c>
+      <c r="D17" s="39">
         <v>27698</v>
       </c>
-      <c r="E17" t="s" s="15">
-        <v>43</v>
-      </c>
-      <c r="F17" s="17">
+      <c r="E17" t="s" s="34">
+        <v>47</v>
+      </c>
+      <c r="F17" s="36">
         <v>2000000</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="15">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s" s="15">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s" s="15">
-        <v>46</v>
-      </c>
-      <c r="D18" s="16">
+      <c r="A18" t="s" s="34">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s" s="34">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s" s="34">
+        <v>50</v>
+      </c>
+      <c r="D18" s="35">
         <v>32905</v>
       </c>
-      <c r="E18" t="s" s="15">
-        <v>43</v>
-      </c>
-      <c r="F18" s="17">
+      <c r="E18" t="s" s="34">
+        <v>47</v>
+      </c>
+      <c r="F18" s="36">
         <v>18500</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" ht="32.05" customHeight="1">
-      <c r="A19" t="s" s="15">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s" s="15">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s" s="15">
-        <v>49</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="A19" t="s" s="34">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s" s="34">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s" s="34">
+        <v>53</v>
+      </c>
+      <c r="D19" s="35">
         <v>26206</v>
       </c>
-      <c r="E19" t="s" s="15">
-        <v>50</v>
-      </c>
-      <c r="F19" s="17">
+      <c r="E19" t="s" s="34">
+        <v>54</v>
+      </c>
+      <c r="F19" s="36">
         <v>12000</v>
       </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="15">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s" s="15">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s" s="15">
-        <v>53</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="A20" t="s" s="34">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s" s="34">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s" s="34">
+        <v>57</v>
+      </c>
+      <c r="D20" s="35">
         <v>21784</v>
       </c>
-      <c r="E20" t="s" s="15">
-        <v>54</v>
-      </c>
-      <c r="F20" s="17">
+      <c r="E20" t="s" s="34">
+        <v>58</v>
+      </c>
+      <c r="F20" s="36">
         <v>475000</v>
       </c>
-      <c r="G20" t="s" s="15">
+      <c r="G20" t="s" s="34">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="34">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="15">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s" s="15">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s" s="15">
-        <v>53</v>
-      </c>
-      <c r="D21" s="16">
+      <c r="B21" t="s" s="34">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s" s="34">
+        <v>57</v>
+      </c>
+      <c r="D21" s="35">
         <v>21784</v>
       </c>
-      <c r="E21" t="s" s="15">
-        <v>54</v>
-      </c>
-      <c r="F21" s="17">
+      <c r="E21" t="s" s="34">
+        <v>58</v>
+      </c>
+      <c r="F21" s="36">
         <v>475000</v>
       </c>
-      <c r="G21" t="s" s="15">
+      <c r="G21" t="s" s="34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="34">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s" s="34">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="15">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s" s="15">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s" s="15">
-        <v>53</v>
-      </c>
-      <c r="D22" s="16">
+      <c r="C22" t="s" s="34">
+        <v>57</v>
+      </c>
+      <c r="D22" s="35">
         <v>21784</v>
       </c>
-      <c r="E22" t="s" s="15">
-        <v>54</v>
-      </c>
-      <c r="F22" s="17">
+      <c r="E22" t="s" s="34">
+        <v>58</v>
+      </c>
+      <c r="F22" s="36">
         <v>475000</v>
       </c>
-      <c r="G22" t="s" s="15">
-        <v>57</v>
+      <c r="G22" t="s" s="34">
+        <v>61</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="15">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s" s="15">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s" s="15">
-        <v>59</v>
-      </c>
-      <c r="D23" s="20">
+      <c r="A23" t="s" s="34">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s" s="34">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s" s="34">
+        <v>63</v>
+      </c>
+      <c r="D23" s="39">
         <v>17493</v>
       </c>
-      <c r="E23" t="s" s="15">
-        <v>60</v>
-      </c>
-      <c r="F23" s="17">
+      <c r="E23" t="s" s="34">
+        <v>64</v>
+      </c>
+      <c r="F23" s="36">
         <v>275000</v>
       </c>
-      <c r="G23" t="s" s="15">
-        <v>61</v>
+      <c r="G23" t="s" s="34">
+        <v>65</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="15">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s" s="15">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s" s="15">
-        <v>63</v>
-      </c>
-      <c r="D24" s="20">
+      <c r="A24" t="s" s="34">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s" s="34">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s" s="34">
+        <v>67</v>
+      </c>
+      <c r="D24" s="39">
         <v>18257</v>
       </c>
-      <c r="E24" t="s" s="15">
-        <v>64</v>
-      </c>
-      <c r="F24" s="17">
+      <c r="E24" t="s" s="34">
+        <v>68</v>
+      </c>
+      <c r="F24" s="36">
         <v>200000</v>
       </c>
-      <c r="G24" s="18"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" ht="32.05" customHeight="1">
-      <c r="A25" t="s" s="15">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s" s="15">
-        <v>65</v>
-      </c>
-      <c r="C25" t="s" s="15">
-        <v>66</v>
-      </c>
-      <c r="D25" s="16">
+      <c r="A25" t="s" s="34">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s" s="34">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s" s="34">
+        <v>70</v>
+      </c>
+      <c r="D25" s="35">
         <v>25374</v>
       </c>
-      <c r="E25" t="s" s="15">
-        <v>67</v>
-      </c>
-      <c r="F25" s="17">
+      <c r="E25" t="s" s="34">
+        <v>71</v>
+      </c>
+      <c r="F25" s="36">
         <v>120000</v>
       </c>
-      <c r="G25" s="18"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2430,110 +2636,108 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="21" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="40" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
-      <c r="A1" t="s" s="22">
+      <c r="A1" t="s" s="41">
         <v>5</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" ht="14.05" customHeight="1">
-      <c r="A4" t="s" s="27">
-        <v>69</v>
-      </c>
-      <c r="B4" t="s" s="28">
-        <v>70</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="A4" t="s" s="47">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s" s="48">
+        <v>73</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" ht="14.05" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="29"/>
-      <c r="D5" t="s" s="32">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s" s="32">
-        <v>72</v>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="37"/>
+      <c r="D5" t="s" s="34">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s" s="34">
+        <v>75</v>
       </c>
     </row>
     <row r="6" ht="14.05" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="29"/>
-      <c r="D6" t="s" s="32">
-        <v>73</v>
-      </c>
-      <c r="E6" s="29"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="37"/>
+      <c r="D6" t="s" s="34">
+        <v>76</v>
+      </c>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" ht="14.05" customHeight="1">
-      <c r="A7" t="s" s="27">
-        <v>74</v>
-      </c>
-      <c r="B7" s="33">
+      <c r="A7" t="s" s="47">
+        <v>77</v>
+      </c>
+      <c r="B7" s="51">
         <v>35</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" ht="14.05" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" ht="14.05" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" ht="14.05" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" ht="14.05" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
